--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_166.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_166.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,43 +488,48 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_175</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>schubert-winterreise_169</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_157</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
         <v>0.2753623188405797</v>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
-      </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>[['G:min', 'C:min', 'G:min', 'D:7', 'G:min']]</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>[(12.82, 24.9)]</t>
-        </is>
-      </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(0.7, 5.28)]</t>
+          <t>[('0:00:14.520000', '0:00:28.300000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
+          <t>[('0:00:00.300000', '0:00:04.800000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
           <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
@@ -528,587 +538,624 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>jaah_39</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_269</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1205479452054795</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['Eb', 'Ab:min', 'Ab:min']]</t>
-        </is>
+          <t>isophonics_50</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_261</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.21875</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['E', 'A:min', 'A:min']]</t>
+          <t>[['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(6.59, 9.13)]</t>
+          <t>[['G/3', 'C', 'G']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(48.396, 52.899)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:00:37.936167', '0:00:42.951678')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:13.079206', '0:00:17.500916')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_217</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_11</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1715686274509804</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['G', 'C', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_36</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_56</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.05368916797488226</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['C:maj', 'F:maj', 'C:maj/E']]</t>
+          <t>[['D:7', 'G:maj', 'G:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(6.415079, 14.054444)]</t>
+          <t>[['G:7', 'C', 'C/7']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(69.86, 73.74)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+          <t>[('0:00:09.140000', '0:00:16.640000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:12.318208', '0:00:18.355396')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_96</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_60</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1569148936170213</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['C:maj', 'A:maj', 'D:maj']]</t>
-        </is>
+          <t>isophonics_245</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_255</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1039426523297491</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['F', 'D', 'G']]</t>
+          <t>[['F#:min', 'B:min', 'F#:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(84.701, 90.135)]</t>
+          <t>[['D:min', 'G:min/5', 'D:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(6.942789, 11.54034)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>[('0:00:36.732085', '0:00:40.296348')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:27.789047', '0:00:31.109501')]</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:6rHh8urosEFRI67xVa6fzU</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_92</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1402173913043478</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['C#:7', 'F#:maj', 'F#:maj/A#']]</t>
-        </is>
+          <t>isophonics_157</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>jaah_52</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2693089430894309</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['E:7', 'A', 'A']]</t>
+          <t>[['E', 'E:7/3', 'A', 'A:min/b3', 'E']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(20.42, 22.86)]</t>
+          <t>[['F', 'F:7', 'Bb', 'Bb:min', 'F']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(24.631133, 29.751133)]</t>
+          <t>[('0:00:20.410362', '0:00:27.840748')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:7HTH1ppjkkOe7RLoBDKXYJ</t>
-        </is>
-      </c>
+          <t>[('0:00:29.470000', '0:00:34.950000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_30</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>isophonics_53</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>isophonics_174</t>
         </is>
       </c>
-      <c r="C7" t="n">
-        <v>0.1583820662768031</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'E', 'A', 'D']]</t>
-        </is>
+      <c r="D7" t="n">
+        <v>0.4497354497354498</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'A', 'D', 'G']]</t>
+          <t>[['A', 'D', 'A', 'E', 'A']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(0.420489, 6.194008)]</t>
+          <t>[['D', 'G', 'D', 'A', 'D']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(43.934, 50.158)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>[('0:00:40.490000', '0:00:51.380000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:04.063000', '0:00:09.774000')]</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_165</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1093350383631713</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['A', 'E', 'A']]</t>
-        </is>
+          <t>isophonics_149</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_200</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4038461538461539</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['F#:maj', 'C#:maj', 'F#:maj']]</t>
+          <t>[['B', 'E', 'B', 'F#']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(52.680839, 55.420793)]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(46.56, 49.08)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:19.602494', '0:00:27.450839')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:00:54.180000', '0:01:05.360000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_255</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>jaah_7</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.09656872816930347</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['D:maj6', 'D:maj6', 'D:maj6/5', 'D:maj6', 'D:maj6/5']]</t>
-        </is>
+          <t>isophonics_64</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_17</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.525</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['Eb:maj6', 'Eb:maj6', 'Eb:maj6', 'Eb:maj6', 'Eb:maj6']]</t>
+          <t>[['A', 'D', 'A', 'D']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(80.688034, 87.266961)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(192.68, 198.88)]</t>
+          <t>[('0:02:02.780000', '0:02:17.555000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:6rHh8urosEFRI67xVa6fzU</t>
+          <t>[('0:02:18.020000', '0:02:23.320000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_2</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>jaah_79</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1484604105571847</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:maj', 'A:maj'], ['A:maj', 'A:maj', 'E:7/G#']]</t>
-        </is>
+          <t>schubert-winterreise_36</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_126</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4211538461538462</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb', 'Bb'], ['Bb', 'Bb', 'F:7']]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(8.34, 15.04), (9.4, 16.5)]</t>
+          <t>[['A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(10.86, 14.13), (7.59, 10.86)]</t>
+          <t>[('0:01:14.700000', '0:01:34.120000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
+          <t>[('0:00:17.560000', '0:00:47.240000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_136</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1821946169772257</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_108</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_15</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'D:7', 'G:maj', 'G:maj/B']]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(79.04, 91.18)]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(18.8, 22.56)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>[('0:00:10.880000', '0:00:45.640000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:13.520000', '0:00:51.460000')]</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_180</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_19</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1798449612403101</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['C', 'F', 'F:7', 'Bb']]</t>
-        </is>
+          <t>schubert-winterreise_82</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_27</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.3726708074534161</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['C', 'F', 'F:7', 'Bb']]</t>
+          <t>[['G:maj/B', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(16.007631, 22.996837)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(37.266349, 41.94517)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
+          <t>[('0:00:20.600000', '0:00:24.180000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:01:04.300000', '0:01:07.900000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_138</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_41</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2363636363636364</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_35</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_57</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/C#', 'B:min/D']]</t>
+          <t>[['G:(3,5,b7,b9)', 'C:min', 'E:dim7'], ['G#:maj', 'D#:(3,5,b7,b9)', 'G#:maj'], ['F#:dim7', 'G:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(18.0, 26.46)]</t>
+          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(0.66, 2.68)]</t>
+          <t>[('0:00:12.720000', '0:00:17.020000'), ('0:00:22.360000', '0:00:25.240000'), ('0:00:17.760000', '0:00:19.180000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:13.820000', '0:00:17.980000'), ('0:00:23.160000', '0:00:26.040000'), ('0:00:18.660000', '0:00:20.140000')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_37</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_97</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.3095238095238095</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_155</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_104</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(45.58, 53.44)]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(8.54, 22.56)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>[('0:00:01.460000', '0:00:39.820000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:00.240000', '0:00:35.100000')]</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_295</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_294</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1261904761904762</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['C/3', 'F', 'C/3']]</t>
-        </is>
+          <t>schubert-winterreise_116</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_215</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G/3']]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(76.585782, 78.06481)]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(22.020589, 24.598004)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>[('0:00:08.440000', '0:02:12.720000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:07.480000', '0:01:36.940000')]</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_130</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>jaah_39</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.2773972602739726</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['B:7/A', 'E:maj/G#', 'E:maj/B', 'B:7']]</t>
-        </is>
+          <t>schubert-winterreise_203</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_205</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['Eb:7', 'Ab', 'Ab', 'Eb:7']]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(229.34, 240.26)]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(34.65, 38.79)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_90</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_186</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(154.76, 160.98)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(118.44, 122.0)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:06.040000', '0:01:50.760000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:05', '0:01:54.060000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
